--- a/20231018_大手企業の貧弱な開発環境/13_IPA.xlsx
+++ b/20231018_大手企業の貧弱な開発環境/13_IPA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20231018_大手企業の貧弱な開発環境\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392CA305-5892-4E9A-ADC9-63DA01F88F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753D61A6-F089-42F0-A8AE-347B140EA8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11355" yWindow="1095" windowWidth="13065" windowHeight="13530" xr2:uid="{B2128A39-2CB5-40E4-A5AB-B0828603C8E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B2128A39-2CB5-40E4-A5AB-B0828603C8E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,13 +252,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>データ提供企業(11ページ、1.1.2 データ提供企業一覧より引用)</t>
+  </si>
+  <si>
+    <t>https://www.ipa.go.jp/digital/chousa/metrics/hjuojm000000c6it-att/000102171.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>「ソフトウェア開発 分析データ集 2022」, 独立行政法人情報処理推進機構 (IPA) より引用</t>
-  </si>
-  <si>
-    <t>データ提供企業(11ページ、1.1.2 データ提供企業一覧より引用)</t>
-  </si>
-  <si>
-    <t>https://www.ipa.go.jp/digital/chousa/metrics/hjuojm000000c6it-att/000102171.pdf</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -662,7 +663,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -672,17 +673,17 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
